--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,10 +1184,10 @@
         <v>5300</v>
       </c>
       <c r="E18" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="F18" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="G18" s="3">
         <v>5000</v>
@@ -1137,31 +1196,37 @@
         <v>4900</v>
       </c>
       <c r="I18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K18" s="3">
         <v>4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>10700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4500</v>
       </c>
       <c r="J20" s="3">
         <v>-4200</v>
       </c>
       <c r="K20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,60 +1389,72 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1372,34 +1463,40 @@
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1200</v>
       </c>
       <c r="G26" s="3">
         <v>700</v>
       </c>
       <c r="H26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>700</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1200</v>
       </c>
       <c r="G27" s="3">
         <v>700</v>
       </c>
       <c r="H27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,8 +1706,8 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1594,18 +1715,18 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2600</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4500</v>
       </c>
       <c r="J32" s="3">
         <v>4200</v>
       </c>
       <c r="K32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M32" s="3">
         <v>3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1200</v>
       </c>
       <c r="G33" s="3">
         <v>700</v>
       </c>
       <c r="H33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>700</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1200</v>
       </c>
       <c r="G35" s="3">
         <v>700</v>
       </c>
       <c r="H35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>700</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2138,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F42" s="3">
         <v>12900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>22600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>31600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>38300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>29400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>27600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>22600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>35300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>29100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>19000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>23100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>12900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F48" s="3">
         <v>20100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>26500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>20300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>20300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>20400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>20200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>18500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>18900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>22700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F49" s="3">
         <v>11600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>10900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>10400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>9900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>9300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>8700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F52" s="3">
         <v>7300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>8500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>661600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>657500</v>
+      </c>
+      <c r="F54" s="3">
         <v>634700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>604400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>584900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>566900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>537900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>532400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>458600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>455700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>436500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>420000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>408100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>409500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,40 +2878,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -2661,10 +2922,16 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,23 +2974,29 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2733,11 +3006,11 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,7 +3089,7 @@
         <v>15200</v>
       </c>
       <c r="E61" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="F61" s="3">
         <v>15200</v>
@@ -2822,25 +3107,31 @@
         <v>15200</v>
       </c>
       <c r="K61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="L61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="M61" s="3">
         <v>15100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>22100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>22100</v>
       </c>
       <c r="N61" s="3">
         <v>22100</v>
       </c>
       <c r="O61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="P61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>22300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>604500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>601100</v>
+      </c>
+      <c r="F66" s="3">
         <v>579600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>551200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>532800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>516000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>487400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>482400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>408500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>401500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>408200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>392500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>381500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>383500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,17 +3521,17 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>3000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3207,10 +3542,16 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F72" s="3">
         <v>6000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>4700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-29300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-30500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-31200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-31700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>57100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F76" s="3">
         <v>55200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>53200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>52200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>50900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>50400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>47000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>47200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>54100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>28300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>26700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>26000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1200</v>
       </c>
       <c r="G81" s="3">
         <v>700</v>
       </c>
       <c r="H81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>700</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4600</v>
       </c>
       <c r="M8" s="3">
         <v>4600</v>
       </c>
       <c r="N8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O8" s="3">
         <v>8300</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3900</v>
       </c>
       <c r="P8" s="3">
         <v>3900</v>
       </c>
       <c r="Q8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,63 +1151,67 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E18" s="3">
         <v>5300</v>
@@ -1190,43 +1220,46 @@
         <v>5300</v>
       </c>
       <c r="G18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H18" s="3">
         <v>5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,24 +1773,24 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E41" s="3">
         <v>12900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E42" s="3">
         <v>30100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>24200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>22600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>31600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>38300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>35300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>23100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="E48" s="3">
         <v>20000</v>
       </c>
       <c r="F48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="G48" s="3">
         <v>20100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>20300</v>
       </c>
       <c r="I48" s="3">
         <v>20300</v>
       </c>
       <c r="J48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K48" s="3">
         <v>20400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>18700</v>
       </c>
       <c r="O48" s="3">
         <v>18700</v>
       </c>
       <c r="P48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>18900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E49" s="3">
         <v>12200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>6600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>660900</v>
+      </c>
+      <c r="E54" s="3">
         <v>661600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>657500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>634700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>604400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>584900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>566900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>537900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>532400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>458600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>455700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>436500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>420000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>408100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>409500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>400</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,26 +3114,29 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3012,8 +3149,8 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,19 +3220,22 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E61" s="3">
         <v>15200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15100</v>
-      </c>
-      <c r="F61" s="3">
-        <v>15200</v>
       </c>
       <c r="G61" s="3">
         <v>15200</v>
@@ -3113,10 +3256,10 @@
         <v>15200</v>
       </c>
       <c r="M61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="N61" s="3">
         <v>15100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>22100</v>
       </c>
       <c r="O61" s="3">
         <v>22100</v>
@@ -3125,13 +3268,16 @@
         <v>22100</v>
       </c>
       <c r="Q61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="R61" s="3">
         <v>22300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>602900</v>
+      </c>
+      <c r="E66" s="3">
         <v>604500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>601100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>579600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>551200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>532800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>516000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>487400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>482400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>408500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>401500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>408200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>392500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>381500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>383500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>3000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3548,10 +3716,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E72" s="3">
         <v>8100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>7500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>6000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>4700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-30500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-31200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E76" s="3">
         <v>57100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>55200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>50900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>47000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>26700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4600</v>
       </c>
       <c r="N8" s="3">
         <v>4600</v>
       </c>
       <c r="O8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P8" s="3">
         <v>8300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3900</v>
       </c>
       <c r="Q8" s="3">
         <v>3900</v>
       </c>
       <c r="R8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,69 +1178,73 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E18" s="3">
         <v>5500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5300</v>
       </c>
       <c r="F18" s="3">
         <v>5300</v>
@@ -1223,43 +1253,46 @@
         <v>5300</v>
       </c>
       <c r="H18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I18" s="3">
         <v>5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1776,24 +1837,24 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2600</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>16900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E42" s="3">
         <v>21900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>30100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>24200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>22600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>38300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>27600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>35300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>23100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,105 +2715,111 @@
         <v>20500</v>
       </c>
       <c r="E48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="F48" s="3">
         <v>20000</v>
       </c>
       <c r="G48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H48" s="3">
         <v>20100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>20300</v>
       </c>
       <c r="J48" s="3">
         <v>20300</v>
       </c>
       <c r="K48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="L48" s="3">
         <v>20400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>18700</v>
       </c>
       <c r="P48" s="3">
         <v>18700</v>
       </c>
       <c r="Q48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="R48" s="3">
         <v>18900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E49" s="3">
         <v>8400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>762600</v>
+      </c>
+      <c r="E54" s="3">
         <v>660900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>661600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>657500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>634700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>604400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>584900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>566900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>537900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>532400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>458600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>455700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>436500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>420000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>408100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>409500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>400</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,29 +3251,32 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,22 +3363,25 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E61" s="3">
         <v>15100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>15200</v>
       </c>
       <c r="H61" s="3">
         <v>15200</v>
@@ -3259,10 +3402,10 @@
         <v>15200</v>
       </c>
       <c r="N61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="O61" s="3">
         <v>15100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>22100</v>
       </c>
       <c r="P61" s="3">
         <v>22100</v>
@@ -3271,13 +3414,16 @@
         <v>22100</v>
       </c>
       <c r="R61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="S61" s="3">
         <v>22300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700300</v>
+      </c>
+      <c r="E66" s="3">
         <v>602900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>604500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>601100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>579600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>551200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>532800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>516000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>487400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>482400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>408500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>401500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>408200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>392500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>381500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>383500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>3000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -3719,10 +3887,13 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>8800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>4700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-30500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-31200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E76" s="3">
         <v>58000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>57100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>56500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>55200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>50900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>47000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>26700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4600</v>
       </c>
       <c r="O8" s="3">
         <v>4600</v>
       </c>
       <c r="P8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>8300</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3900</v>
       </c>
       <c r="R8" s="3">
         <v>3900</v>
       </c>
       <c r="S8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T8" s="3">
         <v>11500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,75 +1205,79 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E18" s="3">
         <v>4700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5300</v>
       </c>
       <c r="G18" s="3">
         <v>5300</v>
@@ -1256,43 +1286,46 @@
         <v>5300</v>
       </c>
       <c r="I18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J18" s="3">
         <v>5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1521,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>3900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1840,24 +1901,24 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2600</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>3900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>3900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2400,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E42" s="3">
         <v>82800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>21900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>30100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>24200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>22600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>31600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>35300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>12900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="E48" s="3">
         <v>20500</v>
       </c>
       <c r="F48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="G48" s="3">
         <v>20000</v>
       </c>
       <c r="H48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I48" s="3">
         <v>20100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>20300</v>
       </c>
       <c r="K48" s="3">
         <v>20300</v>
       </c>
       <c r="L48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="M48" s="3">
         <v>20400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>18700</v>
       </c>
       <c r="Q48" s="3">
         <v>18700</v>
       </c>
       <c r="R48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="S48" s="3">
         <v>18900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>9700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>710200</v>
+      </c>
+      <c r="E54" s="3">
         <v>762600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>660900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>661600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>657500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>634700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>604400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>584900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>566900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>537900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>532400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>458600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>455700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>436500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>420000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>408100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>409500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3153,53 +3284,56 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>400</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3265,21 +3402,21 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>5700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3292,8 +3429,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,25 +3506,28 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E61" s="3">
         <v>20700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>15200</v>
       </c>
       <c r="I61" s="3">
         <v>15200</v>
@@ -3405,10 +3548,10 @@
         <v>15200</v>
       </c>
       <c r="O61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="P61" s="3">
         <v>15100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>22100</v>
       </c>
       <c r="Q61" s="3">
         <v>22100</v>
@@ -3417,13 +3560,16 @@
         <v>22100</v>
       </c>
       <c r="S61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="T61" s="3">
         <v>22300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>641400</v>
+      </c>
+      <c r="E66" s="3">
         <v>700300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>602900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>604500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>601100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>579600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>551200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>532800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>516000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>487400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>482400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>408500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>401500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>408200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>392500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>381500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>383500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>3000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3890,10 +4058,13 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E72" s="3">
         <v>12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-31200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>3600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E76" s="3">
         <v>62300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>58000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>47000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>26700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>3900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5668,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E8" s="3">
         <v>6500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4600</v>
       </c>
       <c r="P8" s="3">
         <v>4600</v>
       </c>
       <c r="Q8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="R8" s="3">
         <v>8300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3900</v>
       </c>
       <c r="S8" s="3">
         <v>3900</v>
       </c>
       <c r="T8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="U8" s="3">
         <v>11500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,81 +1232,85 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>5400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>5300</v>
       </c>
       <c r="H18" s="3">
         <v>5300</v>
@@ -1289,43 +1319,46 @@
         <v>5300</v>
       </c>
       <c r="J18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K18" s="3">
         <v>5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,67 +1380,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,24 +1965,24 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2410,117 +2497,123 @@
         <v>5500</v>
       </c>
       <c r="E41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>116700</v>
+      </c>
+      <c r="E42" s="3">
         <v>94500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>82800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>30100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>24200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>31600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>35300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>12900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,117 +2931,123 @@
         <v>18500</v>
       </c>
       <c r="E48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="F48" s="3">
         <v>20500</v>
       </c>
       <c r="G48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="H48" s="3">
         <v>20000</v>
       </c>
       <c r="I48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J48" s="3">
         <v>20100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>20300</v>
       </c>
       <c r="L48" s="3">
         <v>20300</v>
       </c>
       <c r="M48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="N48" s="3">
         <v>20400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>18700</v>
       </c>
       <c r="R48" s="3">
         <v>18700</v>
       </c>
       <c r="S48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="T48" s="3">
         <v>18900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E49" s="3">
         <v>12000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>777700</v>
+      </c>
+      <c r="E54" s="3">
         <v>710200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>762600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>660900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>661600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>657500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>634700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>604400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>584900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>566900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>537900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>532400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>458600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>455700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>436500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>420000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>408100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>409500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3287,53 +3418,56 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>400</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3405,21 +3542,21 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>5700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3432,8 +3569,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,8 +3649,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,19 +3661,19 @@
         <v>20800</v>
       </c>
       <c r="E61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F61" s="3">
         <v>20700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15100</v>
-      </c>
-      <c r="I61" s="3">
-        <v>15200</v>
       </c>
       <c r="J61" s="3">
         <v>15200</v>
@@ -3551,10 +3694,10 @@
         <v>15200</v>
       </c>
       <c r="P61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="Q61" s="3">
         <v>15100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>22100</v>
       </c>
       <c r="R61" s="3">
         <v>22100</v>
@@ -3563,13 +3706,16 @@
         <v>22100</v>
       </c>
       <c r="T61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="U61" s="3">
         <v>22300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>709500</v>
+      </c>
+      <c r="E66" s="3">
         <v>641400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>602900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>604500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>601100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>579600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>551200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>532800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>516000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>487400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>482400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>408500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>401500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>408200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>392500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>381500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>383500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4040,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>3000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4061,10 +4229,13 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E72" s="3">
         <v>18700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-31200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>3600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E76" s="3">
         <v>68700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>58000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>56500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>47000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>26700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5035,8 +5252,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5524,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5920,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5728,6 +5980,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E8" s="3">
         <v>6100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4600</v>
       </c>
       <c r="Q8" s="3">
         <v>4600</v>
       </c>
       <c r="R8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="S8" s="3">
         <v>8300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3900</v>
       </c>
       <c r="T8" s="3">
         <v>3900</v>
       </c>
       <c r="U8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="V8" s="3">
         <v>11500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,87 +1259,91 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E18" s="3">
         <v>5600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5300</v>
       </c>
       <c r="I18" s="3">
         <v>5300</v>
@@ -1322,43 +1352,46 @@
         <v>5300</v>
       </c>
       <c r="K18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L18" s="3">
         <v>5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,70 +1414,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1607,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,53 +1997,56 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2500,120 +2587,126 @@
         <v>5500</v>
       </c>
       <c r="F41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E42" s="3">
         <v>116700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>94500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>82800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>30100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>35300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>29100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>12900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3027,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18500</v>
+        <v>21800</v>
       </c>
       <c r="E48" s="3">
         <v>18500</v>
       </c>
       <c r="F48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="G48" s="3">
         <v>20500</v>
       </c>
       <c r="H48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="I48" s="3">
         <v>20000</v>
       </c>
       <c r="J48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K48" s="3">
         <v>20100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>20300</v>
       </c>
       <c r="M48" s="3">
         <v>20300</v>
       </c>
       <c r="N48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="O48" s="3">
         <v>20400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>18700</v>
       </c>
       <c r="S48" s="3">
         <v>18700</v>
       </c>
       <c r="T48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="U48" s="3">
         <v>18900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E49" s="3">
         <v>13400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>832200</v>
+      </c>
+      <c r="E54" s="3">
         <v>777700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>710200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>762600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>660900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>661600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>657500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>634700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>604400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>584900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>566900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>537900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>532400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>458600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>455700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>436500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>420000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>408100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>409500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3421,53 +3552,56 @@
       <c r="G57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
-        <v>400</v>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3545,21 +3682,21 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>5700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3572,8 +3709,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3664,19 +3807,19 @@
         <v>20800</v>
       </c>
       <c r="F61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G61" s="3">
         <v>20700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>15200</v>
       </c>
       <c r="K61" s="3">
         <v>15200</v>
@@ -3697,10 +3840,10 @@
         <v>15200</v>
       </c>
       <c r="Q61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="R61" s="3">
         <v>15100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>22100</v>
       </c>
       <c r="S61" s="3">
         <v>22100</v>
@@ -3709,13 +3852,16 @@
         <v>22100</v>
       </c>
       <c r="U61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="V61" s="3">
         <v>22300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>762700</v>
+      </c>
+      <c r="E66" s="3">
         <v>709500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>641400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>602900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>604500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>601100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>579600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>551200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>532800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>516000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>487400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>482400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>408500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>401500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>408200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>392500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>381500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>383500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4211,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>3000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4232,10 +4400,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E72" s="3">
         <v>20400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-29300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-30500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-31200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E76" s="3">
         <v>68200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>58000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>57100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>56500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>55200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>47000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>26700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,64 +771,67 @@
         <v>6700</v>
       </c>
       <c r="E8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F8" s="3">
         <v>6100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>4600</v>
       </c>
       <c r="R8" s="3">
         <v>4600</v>
       </c>
       <c r="S8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T8" s="3">
         <v>8300</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3900</v>
       </c>
       <c r="U8" s="3">
         <v>3900</v>
       </c>
       <c r="V8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="W8" s="3">
         <v>11500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -888,8 +895,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,8 +1286,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,64 +1296,67 @@
         <v>600</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,19 +1364,19 @@
         <v>6100</v>
       </c>
       <c r="E18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F18" s="3">
         <v>5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>5300</v>
       </c>
       <c r="J18" s="3">
         <v>5300</v>
@@ -1355,43 +1385,46 @@
         <v>5300</v>
       </c>
       <c r="L18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M18" s="3">
         <v>5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,73 +1448,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1582,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,138 +1650,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,8 +1854,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,64 +1866,67 @@
         <v>1300</v>
       </c>
       <c r="E26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1879,64 +1934,67 @@
         <v>1300</v>
       </c>
       <c r="E27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2026,30 +2087,30 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,73 +2262,79 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2269,64 +2342,67 @@
         <v>1300</v>
       </c>
       <c r="E33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,8 +2466,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2399,134 +2478,140 @@
         <v>1300</v>
       </c>
       <c r="E35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,13 +2661,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5500</v>
+        <v>4900</v>
       </c>
       <c r="E41" s="3">
         <v>5500</v>
@@ -2590,123 +2677,129 @@
         <v>5500</v>
       </c>
       <c r="G41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>185800</v>
+      </c>
+      <c r="E42" s="3">
         <v>146000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>116700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>94500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>82800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>30100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>27600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>35300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>29100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>23100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>12900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2863,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2931,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2999,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,8 +3067,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,138 +3135,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E48" s="3">
         <v>21800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>18500</v>
       </c>
       <c r="F48" s="3">
         <v>18500</v>
       </c>
       <c r="G48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="H48" s="3">
         <v>20500</v>
       </c>
       <c r="I48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="J48" s="3">
         <v>20000</v>
       </c>
       <c r="K48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="L48" s="3">
         <v>20100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>20300</v>
       </c>
       <c r="N48" s="3">
         <v>20300</v>
       </c>
       <c r="O48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="P48" s="3">
         <v>20400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>18700</v>
       </c>
       <c r="T48" s="3">
         <v>18700</v>
       </c>
       <c r="U48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="V48" s="3">
         <v>18900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E49" s="3">
         <v>13600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3299,64 +3419,67 @@
         <v>2800</v>
       </c>
       <c r="E52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3543,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>911100</v>
+      </c>
+      <c r="E54" s="3">
         <v>832200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>777700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>710200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>762600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>660900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>661600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>657500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>634700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>604400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>584900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>566900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>537900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>532400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>458600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>455700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>436500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>420000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>408100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>409500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3665,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3555,53 +3686,56 @@
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>400</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,8 +3799,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3685,21 +3822,21 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3712,8 +3849,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3730,8 +3867,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,13 +3935,16 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20800</v>
+        <v>25800</v>
       </c>
       <c r="E61" s="3">
         <v>20800</v>
@@ -3810,19 +3953,19 @@
         <v>20800</v>
       </c>
       <c r="G61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="H61" s="3">
         <v>20700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>15200</v>
       </c>
       <c r="L61" s="3">
         <v>15200</v>
@@ -3843,10 +3986,10 @@
         <v>15200</v>
       </c>
       <c r="R61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="S61" s="3">
         <v>15100</v>
-      </c>
-      <c r="S61" s="3">
-        <v>22100</v>
       </c>
       <c r="T61" s="3">
         <v>22100</v>
@@ -3855,13 +3998,16 @@
         <v>22100</v>
       </c>
       <c r="V61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="W61" s="3">
         <v>22300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4071,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4275,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>840600</v>
+      </c>
+      <c r="E66" s="3">
         <v>762700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>709500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>641400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>602900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>604500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>601100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>579600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>551200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>532800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>516000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>487400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>482400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>408500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>401500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>408200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>392500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>381500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>383500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4382,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>3000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -4403,10 +4571,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4641,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E72" s="3">
         <v>21800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-29300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-30500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-31200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4913,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E76" s="3">
         <v>69600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>68200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>62300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>58000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>57100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>47000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>54100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>26700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,78 +5049,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4939,64 +5134,67 @@
         <v>1300</v>
       </c>
       <c r="E81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5624,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5475,8 +5692,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5720,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5922,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5990,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6288,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6110,8 +6356,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6424,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6490,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,179 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6700</v>
+        <v>7100</v>
       </c>
       <c r="E8" s="3">
         <v>6700</v>
       </c>
       <c r="F8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G8" s="3">
         <v>6100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4600</v>
       </c>
       <c r="S8" s="3">
         <v>4600</v>
       </c>
       <c r="T8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="U8" s="3">
         <v>8300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3900</v>
       </c>
       <c r="V8" s="3">
         <v>3900</v>
       </c>
       <c r="W8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="X8" s="3">
         <v>11500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -898,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1299,87 +1325,90 @@
         <v>600</v>
       </c>
       <c r="F17" s="3">
+        <v>600</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="E18" s="3">
         <v>6100</v>
       </c>
       <c r="F18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G18" s="3">
         <v>5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>5300</v>
       </c>
       <c r="K18" s="3">
         <v>5300</v>
@@ -1388,43 +1417,46 @@
         <v>5300</v>
       </c>
       <c r="M18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N18" s="3">
         <v>5000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,76 +1481,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1585,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>3900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E26" s="3">
         <v>1300</v>
       </c>
       <c r="F26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E27" s="3">
         <v>1300</v>
       </c>
       <c r="F27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2090,30 +2150,30 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2600</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E33" s="3">
         <v>1300</v>
       </c>
       <c r="F33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E35" s="3">
         <v>1300</v>
       </c>
       <c r="F35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,16 +2747,17 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5500</v>
       </c>
       <c r="F41" s="3">
         <v>5500</v>
@@ -2680,126 +2766,132 @@
         <v>5500</v>
       </c>
       <c r="H41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E42" s="3">
         <v>185800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>146000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>116700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>94500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>82800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>22600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>31600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>38300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>27600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>35300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>19000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>23100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>12900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2866,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2934,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3002,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3070,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,144 +3242,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E48" s="3">
         <v>22400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>21800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>18500</v>
       </c>
       <c r="G48" s="3">
         <v>18500</v>
       </c>
       <c r="H48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="I48" s="3">
         <v>20500</v>
       </c>
       <c r="J48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="K48" s="3">
         <v>20000</v>
       </c>
       <c r="L48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="M48" s="3">
         <v>20100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>20300</v>
       </c>
       <c r="O48" s="3">
         <v>20300</v>
       </c>
       <c r="P48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>20400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>18700</v>
       </c>
       <c r="U48" s="3">
         <v>18700</v>
       </c>
       <c r="V48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="W48" s="3">
         <v>18900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>22700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E49" s="3">
         <v>13800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>4100</v>
       </c>
       <c r="E52" s="3">
         <v>2800</v>
       </c>
       <c r="F52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>910800</v>
+      </c>
+      <c r="E54" s="3">
         <v>911100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>832200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>777700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>710200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>762600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>660900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>661600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>657500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>634700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>604400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>584900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>566900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>537900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>532400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>458600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>455700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>436500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>420000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>408100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>409500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3689,53 +3819,56 @@
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
-        <v>400</v>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3802,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3825,21 +3961,21 @@
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3852,8 +3988,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3870,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3938,16 +4077,19 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E61" s="3">
         <v>25800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>20800</v>
       </c>
       <c r="F61" s="3">
         <v>20800</v>
@@ -3956,19 +4098,19 @@
         <v>20800</v>
       </c>
       <c r="H61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I61" s="3">
         <v>20700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>15200</v>
       </c>
       <c r="M61" s="3">
         <v>15200</v>
@@ -3989,10 +4131,10 @@
         <v>15200</v>
       </c>
       <c r="S61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="T61" s="3">
         <v>15100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>22100</v>
       </c>
       <c r="U61" s="3">
         <v>22100</v>
@@ -4001,13 +4143,16 @@
         <v>22100</v>
       </c>
       <c r="W61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="X61" s="3">
         <v>22300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4074,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>840000</v>
+      </c>
+      <c r="E66" s="3">
         <v>840600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>762700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>709500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>641400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>602900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>604500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>601100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>579600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>551200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>532800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>516000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>487400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>482400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>408500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>401500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>408200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>392500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>381500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>383500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4553,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>3000</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4574,10 +4741,13 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E72" s="3">
         <v>23100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>21800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>18700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-29300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-31200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E76" s="3">
         <v>70400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>68200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>62300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>58000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>57100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>47000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>54100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>26700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E81" s="3">
         <v>1300</v>
       </c>
       <c r="F81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5287,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5695,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5789,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5993,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6359,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6493,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6700</v>
       </c>
       <c r="F8" s="3">
         <v>6700</v>
       </c>
       <c r="G8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="H8" s="3">
         <v>6100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4600</v>
       </c>
       <c r="T8" s="3">
         <v>4600</v>
       </c>
       <c r="U8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V8" s="3">
         <v>8300</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3900</v>
       </c>
       <c r="W8" s="3">
         <v>3900</v>
       </c>
       <c r="X8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>11500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,13 +1339,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
@@ -1328,64 +1355,67 @@
         <v>600</v>
       </c>
       <c r="G17" s="3">
+        <v>600</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,25 +1423,25 @@
         <v>6500</v>
       </c>
       <c r="E18" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="F18" s="3">
         <v>6100</v>
       </c>
       <c r="G18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H18" s="3">
         <v>5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>5300</v>
       </c>
       <c r="L18" s="3">
         <v>5300</v>
@@ -1420,43 +1450,46 @@
         <v>5300</v>
       </c>
       <c r="N18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O18" s="3">
         <v>5000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>5000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,79 +1515,83 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1957,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,70 +1969,73 @@
         <v>900</v>
       </c>
       <c r="E26" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F26" s="3">
         <v>1300</v>
       </c>
       <c r="G26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,70 +2043,73 @@
         <v>900</v>
       </c>
       <c r="E27" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F27" s="3">
         <v>1300</v>
       </c>
       <c r="G27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,30 +2214,30 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2600</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,79 +2401,85 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2414,70 +2487,73 @@
         <v>900</v>
       </c>
       <c r="E33" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F33" s="3">
         <v>1300</v>
       </c>
       <c r="G33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2623,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,146 +2635,152 @@
         <v>900</v>
       </c>
       <c r="E35" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F35" s="3">
         <v>1300</v>
       </c>
       <c r="G35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,19 +2834,20 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>5500</v>
       </c>
       <c r="G41" s="3">
         <v>5500</v>
@@ -2769,129 +2856,135 @@
         <v>5500</v>
       </c>
       <c r="I41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E42" s="3">
         <v>145900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>185800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>146000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>116700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>94500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>82800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>31600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>38300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>29400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>35300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>19000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>23100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>12900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E48" s="3">
         <v>22800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>21800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>18500</v>
       </c>
       <c r="H48" s="3">
         <v>18500</v>
       </c>
       <c r="I48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="J48" s="3">
         <v>20500</v>
       </c>
       <c r="K48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="L48" s="3">
         <v>20000</v>
       </c>
       <c r="M48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="N48" s="3">
         <v>20100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>26500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>20300</v>
       </c>
       <c r="P48" s="3">
         <v>20300</v>
       </c>
       <c r="Q48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="R48" s="3">
         <v>20400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>18500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>18600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>18700</v>
       </c>
       <c r="V48" s="3">
         <v>18700</v>
       </c>
       <c r="W48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="X48" s="3">
         <v>18900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>22700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E49" s="3">
         <v>14100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>13800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>13600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>4100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2800</v>
       </c>
       <c r="F52" s="3">
         <v>2800</v>
       </c>
       <c r="G52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>953800</v>
+      </c>
+      <c r="E54" s="3">
         <v>910800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>911100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>832200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>777700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>710200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>762600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>660900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>661600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>657500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>634700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>604400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>584900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>566900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>537900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>532400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>458600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>455700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>436500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>420000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>408100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>409500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +3926,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,47 +4072,50 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>5700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3991,8 +4128,8 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4009,8 +4146,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4089,10 +4232,10 @@
         <v>25700</v>
       </c>
       <c r="E61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F61" s="3">
         <v>25800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>20800</v>
       </c>
       <c r="G61" s="3">
         <v>20800</v>
@@ -4101,19 +4244,19 @@
         <v>20800</v>
       </c>
       <c r="I61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="J61" s="3">
         <v>20700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>15200</v>
       </c>
       <c r="N61" s="3">
         <v>15200</v>
@@ -4134,10 +4277,10 @@
         <v>15200</v>
       </c>
       <c r="T61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="U61" s="3">
         <v>15100</v>
-      </c>
-      <c r="U61" s="3">
-        <v>22100</v>
       </c>
       <c r="V61" s="3">
         <v>22100</v>
@@ -4146,13 +4289,16 @@
         <v>22100</v>
       </c>
       <c r="X61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="Y61" s="3">
         <v>22300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>887200</v>
+      </c>
+      <c r="E66" s="3">
         <v>840000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>840600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>762700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>709500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>641400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>602900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>604500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>601100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>579600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>551200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>532800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>516000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>487400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>482400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>408500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>401500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>408200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>392500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>381500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>383500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4723,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>3000</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4744,10 +4912,13 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E72" s="3">
         <v>24000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>21800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>20400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>18700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-29300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-31200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-31700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E76" s="3">
         <v>70800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>68200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>68700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>62300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>58000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>50400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>47000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>47200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>26700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>26000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5432,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5328,70 +5523,73 @@
         <v>900</v>
       </c>
       <c r="E81" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="F81" s="3">
         <v>1300</v>
       </c>
       <c r="G81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,200 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>7100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>8300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>11500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,8 +931,14 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1011,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1045,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1121,14 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1201,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1281,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1361,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,123 +1392,131 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
         <v>600</v>
       </c>
       <c r="F17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
-      </c>
-      <c r="X17" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>800</v>
       </c>
       <c r="Z17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F18" s="3">
         <v>6500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>6100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>5400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>5300</v>
       </c>
       <c r="N18" s="3">
         <v>5300</v>
       </c>
       <c r="O18" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="P18" s="3">
-        <v>4900</v>
+        <v>5300</v>
       </c>
       <c r="Q18" s="3">
         <v>5000</v>
@@ -1465,31 +1525,37 @@
         <v>4900</v>
       </c>
       <c r="S18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="U18" s="3">
         <v>4700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>4200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>7000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>10700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,82 +1582,90 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-4700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-4100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-4500</v>
       </c>
       <c r="T20" s="3">
         <v>-4200</v>
       </c>
       <c r="U20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1738,14 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,120 +1818,132 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>3900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>400</v>
       </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>400</v>
+      </c>
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -1860,34 +1952,40 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>1300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2058,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>700</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1200</v>
       </c>
       <c r="Q26" s="3">
         <v>700</v>
       </c>
       <c r="R26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>700</v>
+      </c>
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>2600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1200</v>
       </c>
       <c r="Q27" s="3">
         <v>700</v>
       </c>
       <c r="R27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>700</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2298,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2217,14 +2339,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2232,18 +2354,18 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2600</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2256,8 +2378,14 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2458,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2538,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F32" s="3">
         <v>5400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>4700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>4100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>4200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>4500</v>
       </c>
       <c r="T32" s="3">
         <v>4200</v>
       </c>
       <c r="U32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>6800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1200</v>
       </c>
       <c r="Q33" s="3">
         <v>700</v>
       </c>
       <c r="R33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>700</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2778,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1200</v>
       </c>
       <c r="Q35" s="3">
         <v>700</v>
       </c>
       <c r="R35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>700</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2977,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,156 +3007,170 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5500</v>
       </c>
       <c r="I41" s="3">
         <v>5500</v>
       </c>
       <c r="J41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F42" s="3">
         <v>117000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>145900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>185800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>146000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>116700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>94500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>82800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>21900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>30100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>24200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>12900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>22600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>31600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>38300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>29400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>27600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>22600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>35300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>29100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>19000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>23100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>12900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3243,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3323,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3403,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3483,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,156 +3563,174 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F48" s="3">
         <v>23200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>22800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>22400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>21800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>18500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>20500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>20000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>20100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>26500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>20300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>20300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>20400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>20200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>18500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>18600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>18700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>18700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>18900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>22700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F49" s="3">
         <v>14500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>14100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>13800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>13600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>13400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>12500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>11600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>9300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>6400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>4200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>3100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3803,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3883,94 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>3500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>8300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>8500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>4500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>7500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>7800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>8200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>8500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>8800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +4043,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>946400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>946900</v>
+      </c>
+      <c r="F54" s="3">
         <v>953800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>910800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>911100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>832200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>777700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>710200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>762600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>660900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>661600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>657500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>634700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>604400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>584900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>566900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>537900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>532400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>458600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>455700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>436500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>420000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>408100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>409500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4157,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4187,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3953,44 +4215,44 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -3999,10 +4261,16 @@
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4343,14 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4101,27 +4375,27 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4131,11 +4405,11 @@
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4149,8 +4423,14 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,8 +4503,14 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4235,25 +4521,25 @@
         <v>25700</v>
       </c>
       <c r="F61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="H61" s="3">
         <v>25800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>20800</v>
-      </c>
-      <c r="H61" s="3">
-        <v>20800</v>
       </c>
       <c r="I61" s="3">
         <v>20800</v>
       </c>
       <c r="J61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="L61" s="3">
         <v>20700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>15100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>15200</v>
       </c>
       <c r="M61" s="3">
         <v>15100</v>
@@ -4262,7 +4548,7 @@
         <v>15200</v>
       </c>
       <c r="O61" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="P61" s="3">
         <v>15200</v>
@@ -4280,25 +4566,31 @@
         <v>15200</v>
       </c>
       <c r="U61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="V61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="W61" s="3">
         <v>15100</v>
-      </c>
-      <c r="V61" s="3">
-        <v>22100</v>
-      </c>
-      <c r="W61" s="3">
-        <v>22100</v>
       </c>
       <c r="X61" s="3">
         <v>22100</v>
       </c>
       <c r="Y61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>22300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4663,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4743,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4823,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4903,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>884300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>882900</v>
+      </c>
+      <c r="F66" s="3">
         <v>887200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>840000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>840600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>762700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>709500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>641400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>602900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>604500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>601100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>579600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>551200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>532800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>516000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>487400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>482400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>408500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>401500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>408200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>392500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>381500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>383500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5017,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5093,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5173,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4894,17 +5230,17 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>3000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>3000</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -4915,10 +5251,16 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5333,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F72" s="3">
         <v>24800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>24000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>23100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>21800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>20400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>18700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>8800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-30500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-31200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-31700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>4300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>3600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>2900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5493,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5573,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5653,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F76" s="3">
         <v>66600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>70800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>70400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>69600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>68200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>68700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>62300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>58000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>57100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>56500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>55200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>53200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>52200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>50900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>50400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>47000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>47200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>54100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>28300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>27500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>26700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>26000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5813,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1200</v>
       </c>
       <c r="Q81" s="3">
         <v>700</v>
       </c>
       <c r="R81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>700</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +6012,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +6088,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6168,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6248,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6328,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6408,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6488,14 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6134,8 +6568,14 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6602,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6678,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6758,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6838,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6918,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6952,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7028,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7108,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7188,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7268,14 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6856,8 +7348,14 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7428,14 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7506,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,206 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6700</v>
       </c>
       <c r="I8" s="3">
         <v>6700</v>
       </c>
       <c r="J8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4600</v>
       </c>
       <c r="W8" s="3">
         <v>4600</v>
       </c>
       <c r="X8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>8300</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>3900</v>
       </c>
       <c r="Z8" s="3">
         <v>3900</v>
       </c>
       <c r="AA8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>11500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -937,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,22 +1419,23 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
@@ -1418,99 +1444,102 @@
         <v>600</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>8100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6500</v>
       </c>
       <c r="G18" s="3">
         <v>6500</v>
       </c>
       <c r="H18" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="I18" s="3">
         <v>6100</v>
       </c>
       <c r="J18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>5300</v>
       </c>
       <c r="O18" s="3">
         <v>5300</v>
@@ -1519,43 +1548,46 @@
         <v>5300</v>
       </c>
       <c r="Q18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="R18" s="3">
         <v>5000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>7000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,88 +1616,92 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-6800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1744,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1824,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>3900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
+        <v>200</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>900</v>
       </c>
       <c r="G26" s="3">
         <v>900</v>
       </c>
       <c r="H26" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="I26" s="3">
         <v>1300</v>
       </c>
       <c r="J26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>900</v>
       </c>
       <c r="G27" s="3">
         <v>900</v>
       </c>
       <c r="H27" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="I27" s="3">
         <v>1300</v>
       </c>
       <c r="J27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2345,30 +2405,30 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2600</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2384,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E32" s="3">
         <v>4900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>900</v>
       </c>
       <c r="G33" s="3">
         <v>900</v>
       </c>
       <c r="H33" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="I33" s="3">
         <v>1300</v>
       </c>
       <c r="J33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>900</v>
       </c>
       <c r="G35" s="3">
         <v>900</v>
       </c>
       <c r="H35" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="I35" s="3">
         <v>1300</v>
       </c>
       <c r="J35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,28 +3094,29 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
-      </c>
-      <c r="I41" s="3">
-        <v>5500</v>
       </c>
       <c r="J41" s="3">
         <v>5500</v>
@@ -3039,138 +3125,144 @@
         <v>5500</v>
       </c>
       <c r="L41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E42" s="3">
         <v>61500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>46600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>117000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>145900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>185800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>146000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>116700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>94500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>82800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>30100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>12900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>31600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>38300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>29400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>27600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>22600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>35300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>29100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>19000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>23100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>12900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3249,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3329,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3409,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3489,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,168 +3673,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E48" s="3">
         <v>22900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>23100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>18500</v>
       </c>
       <c r="K48" s="3">
         <v>18500</v>
       </c>
       <c r="L48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="M48" s="3">
         <v>20500</v>
       </c>
       <c r="N48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="O48" s="3">
         <v>20000</v>
       </c>
       <c r="P48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>20100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>20300</v>
       </c>
       <c r="S48" s="3">
         <v>20300</v>
       </c>
       <c r="T48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="U48" s="3">
         <v>20400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18600</v>
-      </c>
-      <c r="X48" s="3">
-        <v>18700</v>
       </c>
       <c r="Y48" s="3">
         <v>18700</v>
       </c>
       <c r="Z48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AA48" s="3">
         <v>18900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>22700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E49" s="3">
         <v>10200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3898,79 +4017,82 @@
         <v>8600</v>
       </c>
       <c r="E52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2800</v>
       </c>
       <c r="I52" s="3">
         <v>2800</v>
       </c>
       <c r="J52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>937100</v>
+      </c>
+      <c r="E54" s="3">
         <v>946400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>946900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>953800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>910800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>911100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>832200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>777700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>710200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>762600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>660900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>661600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>657500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>634700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>604400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>584900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>566900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>537900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>532400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>458600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>455700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>436500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>420000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>408100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>409500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4221,56 +4351,59 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
       </c>
       <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4349,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4381,24 +4517,24 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4411,8 +4547,8 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4429,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4509,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4527,10 +4669,10 @@
         <v>25700</v>
       </c>
       <c r="H61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I61" s="3">
         <v>25800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>20800</v>
       </c>
       <c r="J61" s="3">
         <v>20800</v>
@@ -4539,19 +4681,19 @@
         <v>20800</v>
       </c>
       <c r="L61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="M61" s="3">
         <v>20700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>15200</v>
       </c>
       <c r="Q61" s="3">
         <v>15200</v>
@@ -4572,10 +4714,10 @@
         <v>15200</v>
       </c>
       <c r="W61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="X61" s="3">
         <v>15100</v>
-      </c>
-      <c r="X61" s="3">
-        <v>22100</v>
       </c>
       <c r="Y61" s="3">
         <v>22100</v>
@@ -4584,13 +4726,16 @@
         <v>22100</v>
       </c>
       <c r="AA61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="AB61" s="3">
         <v>22300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4669,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>873800</v>
+      </c>
+      <c r="E66" s="3">
         <v>884300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>882900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>887200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>840000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>840600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>762700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>709500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>641400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>602900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>604500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>601100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>579600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>551200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>532800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>516000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>487400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>482400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>408500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>401500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>408200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>392500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>381500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>383500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5236,13 +5403,13 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>3000</v>
       </c>
       <c r="W70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X70" s="3">
         <v>0</v>
@@ -5257,10 +5424,13 @@
         <v>0</v>
       </c>
       <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E72" s="3">
         <v>28400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>24800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-29300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-31200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E76" s="3">
         <v>62200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>64000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>66600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>68200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>53200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>50900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>47000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>54100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>26700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>26000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>900</v>
       </c>
       <c r="G81" s="3">
         <v>900</v>
       </c>
       <c r="H81" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="I81" s="3">
         <v>1300</v>
       </c>
       <c r="J81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6094,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6574,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6684,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6924,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7354,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7512,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6700</v>
       </c>
       <c r="J8" s="3">
         <v>6700</v>
       </c>
       <c r="K8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="L8" s="3">
         <v>6100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>4600</v>
       </c>
       <c r="X8" s="3">
         <v>4600</v>
       </c>
       <c r="Y8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>8300</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>3900</v>
       </c>
       <c r="AA8" s="3">
         <v>3900</v>
       </c>
       <c r="AB8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AC8" s="3">
         <v>11500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,25 +1446,26 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
@@ -1447,102 +1474,105 @@
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E18" s="3">
         <v>7800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6500</v>
       </c>
       <c r="H18" s="3">
         <v>6500</v>
       </c>
       <c r="I18" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="J18" s="3">
         <v>6100</v>
       </c>
       <c r="K18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>5300</v>
       </c>
       <c r="P18" s="3">
         <v>5300</v>
@@ -1551,43 +1581,46 @@
         <v>5300</v>
       </c>
       <c r="R18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="S18" s="3">
         <v>5000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>5000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>7000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,91 +1650,95 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-6800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>3900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
+        <v>200</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>900</v>
       </c>
       <c r="H26" s="3">
         <v>900</v>
       </c>
       <c r="I26" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J26" s="3">
         <v>1300</v>
       </c>
       <c r="K26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>900</v>
       </c>
       <c r="H27" s="3">
         <v>900</v>
       </c>
       <c r="I27" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J27" s="3">
         <v>1300</v>
       </c>
       <c r="K27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2408,30 +2469,30 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2600</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>5800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>6800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>900</v>
       </c>
       <c r="H33" s="3">
         <v>900</v>
       </c>
       <c r="I33" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J33" s="3">
         <v>1300</v>
       </c>
       <c r="K33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>900</v>
       </c>
       <c r="H35" s="3">
         <v>900</v>
       </c>
       <c r="I35" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J35" s="3">
         <v>1300</v>
       </c>
       <c r="K35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,31 +3181,32 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
-      </c>
-      <c r="J41" s="3">
-        <v>5500</v>
       </c>
       <c r="K41" s="3">
         <v>5500</v>
@@ -3128,141 +3215,147 @@
         <v>5500</v>
       </c>
       <c r="M41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N41" s="3">
         <v>5000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E42" s="3">
         <v>32100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>61500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>46600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>117000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>145900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>185800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>146000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>116700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>94500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>82800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>24200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>12900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>31600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>38300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>29400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>27600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>22600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>35300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>29100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>19000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>23100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>12900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,174 +3781,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E48" s="3">
         <v>22800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>22900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>23100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>21800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>18500</v>
       </c>
       <c r="L48" s="3">
         <v>18500</v>
       </c>
       <c r="M48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="N48" s="3">
         <v>20500</v>
       </c>
       <c r="O48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="P48" s="3">
         <v>20000</v>
       </c>
       <c r="Q48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="R48" s="3">
         <v>20100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>26500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>20300</v>
       </c>
       <c r="T48" s="3">
         <v>20300</v>
       </c>
       <c r="U48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="V48" s="3">
         <v>20400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18600</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>18700</v>
       </c>
       <c r="Z48" s="3">
         <v>18700</v>
       </c>
       <c r="AA48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AB48" s="3">
         <v>18900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>22700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E49" s="3">
         <v>10400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>11600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>3100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E52" s="3">
         <v>8600</v>
       </c>
       <c r="F52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2800</v>
       </c>
       <c r="J52" s="3">
         <v>2800</v>
       </c>
       <c r="K52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L52" s="3">
         <v>3200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000500</v>
+      </c>
+      <c r="E54" s="3">
         <v>937100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>946400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>946900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>953800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>910800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>911100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>832200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>777700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>710200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>762600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>660900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>661600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>657500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>634700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>604400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>584900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>566900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>537900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>532400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>458600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>455700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>436500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>420000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>408100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>409500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4354,56 +4485,59 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4520,24 +4657,24 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4550,8 +4687,8 @@
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4672,10 +4815,10 @@
         <v>25700</v>
       </c>
       <c r="I61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="J61" s="3">
         <v>25800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>20800</v>
       </c>
       <c r="K61" s="3">
         <v>20800</v>
@@ -4684,19 +4827,19 @@
         <v>20800</v>
       </c>
       <c r="M61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="N61" s="3">
         <v>20700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>15200</v>
       </c>
       <c r="R61" s="3">
         <v>15200</v>
@@ -4717,10 +4860,10 @@
         <v>15200</v>
       </c>
       <c r="X61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="Y61" s="3">
         <v>15100</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>22100</v>
       </c>
       <c r="Z61" s="3">
         <v>22100</v>
@@ -4729,13 +4872,16 @@
         <v>22100</v>
       </c>
       <c r="AB61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="AC61" s="3">
         <v>22300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>934100</v>
+      </c>
+      <c r="E66" s="3">
         <v>873800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>884300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>882900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>887200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>840000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>840600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>762700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>709500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>641400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>700300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>602900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>604500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>601100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>579600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>551200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>532800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>516000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>487400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>482400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>408500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>401500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>408200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>392500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>381500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>383500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5406,13 +5574,13 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="W70" s="3">
         <v>3000</v>
       </c>
       <c r="X70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Y70" s="3">
         <v>0</v>
@@ -5427,10 +5595,13 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E72" s="3">
         <v>29900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>24800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>24000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>23100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>21800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>20400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-29300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-30500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-31200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E76" s="3">
         <v>63300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>62200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>64000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>66600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>70400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>68200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>62300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>53200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>50900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>47000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>47200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>54100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>28300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>26700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>26000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>900</v>
       </c>
       <c r="H81" s="3">
         <v>900</v>
       </c>
       <c r="I81" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="J81" s="3">
         <v>1300</v>
       </c>
       <c r="K81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,8 +6924,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,8 +7934,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FSRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>FSRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,220 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E8" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6700</v>
       </c>
       <c r="K8" s="3">
         <v>6700</v>
       </c>
       <c r="L8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="M8" s="3">
         <v>6100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>4600</v>
       </c>
       <c r="Y8" s="3">
         <v>4600</v>
       </c>
       <c r="Z8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="AA8" s="3">
         <v>8300</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3900</v>
       </c>
       <c r="AB8" s="3">
         <v>3900</v>
       </c>
       <c r="AC8" s="3">
+        <v>3900</v>
+      </c>
+      <c r="AD8" s="3">
         <v>11500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,28 +1473,29 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
@@ -1477,105 +1504,108 @@
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>6500</v>
       </c>
       <c r="I18" s="3">
         <v>6500</v>
       </c>
       <c r="J18" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="K18" s="3">
         <v>6100</v>
       </c>
       <c r="L18" s="3">
+        <v>6100</v>
+      </c>
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>5300</v>
       </c>
       <c r="Q18" s="3">
         <v>5300</v>
@@ -1584,43 +1614,46 @@
         <v>5300</v>
       </c>
       <c r="S18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="T18" s="3">
         <v>5000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>5000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>7000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,94 +1684,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-6800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-4900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,94 +1949,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>3900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2004,85 +2050,88 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
       <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>900</v>
       </c>
       <c r="I26" s="3">
         <v>900</v>
       </c>
       <c r="J26" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K26" s="3">
         <v>1300</v>
       </c>
       <c r="L26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>900</v>
       </c>
       <c r="I27" s="3">
         <v>900</v>
       </c>
       <c r="J27" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K27" s="3">
         <v>1300</v>
       </c>
       <c r="L27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2472,30 +2533,30 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E32" s="3">
         <v>5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>6800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>900</v>
       </c>
       <c r="I33" s="3">
         <v>900</v>
       </c>
       <c r="J33" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K33" s="3">
         <v>1300</v>
       </c>
       <c r="L33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>900</v>
       </c>
       <c r="I35" s="3">
         <v>900</v>
       </c>
       <c r="J35" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K35" s="3">
         <v>1300</v>
       </c>
       <c r="L35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,34 +3268,35 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
-      </c>
-      <c r="K41" s="3">
-        <v>5500</v>
       </c>
       <c r="L41" s="3">
         <v>5500</v>
@@ -3218,144 +3305,150 @@
         <v>5500</v>
       </c>
       <c r="N41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O41" s="3">
         <v>5000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E42" s="3">
         <v>74200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>32100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>61500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>46600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>117000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>145900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>185800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>146000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>116700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>94500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>82800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>24200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>12900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>22600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>31600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>38300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>29400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>27600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>22600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>35300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>29100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>19000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>23100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>12900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +3711,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3698,8 +3800,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +3889,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3793,171 +3901,177 @@
         <v>22600</v>
       </c>
       <c r="E48" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F48" s="3">
         <v>22800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>23200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>18500</v>
       </c>
       <c r="M48" s="3">
         <v>18500</v>
       </c>
       <c r="N48" s="3">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="O48" s="3">
         <v>20500</v>
       </c>
       <c r="P48" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="Q48" s="3">
         <v>20000</v>
       </c>
       <c r="R48" s="3">
+        <v>20000</v>
+      </c>
+      <c r="S48" s="3">
         <v>20100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>26500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>20300</v>
       </c>
       <c r="U48" s="3">
         <v>20300</v>
       </c>
       <c r="V48" s="3">
+        <v>20300</v>
+      </c>
+      <c r="W48" s="3">
         <v>20400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>18500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18600</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>18700</v>
       </c>
       <c r="AA48" s="3">
         <v>18700</v>
       </c>
       <c r="AB48" s="3">
+        <v>18700</v>
+      </c>
+      <c r="AC48" s="3">
         <v>18900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>22700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E49" s="3">
         <v>10500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>13800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>12200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>12500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>3100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8600</v>
       </c>
       <c r="F52" s="3">
         <v>8600</v>
       </c>
       <c r="G52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2800</v>
       </c>
       <c r="K52" s="3">
         <v>2800</v>
       </c>
       <c r="L52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M52" s="3">
         <v>3200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>992600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>937100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>946400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>946900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>953800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>910800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>911100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>832200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>777700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>710200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>762600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>660900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>661600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>657500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>634700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>604400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>584900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>566900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>537900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>532400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>458600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>455700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>436500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>420000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>408100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>409500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>383900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4580,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4488,56 +4619,59 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q57" s="3">
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
       </c>
       <c r="T57" s="3">
         <v>400</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4622,8 +4756,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4660,24 +4797,24 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4690,8 +4827,8 @@
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4708,8 +4845,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4794,8 +4934,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4818,10 +4961,10 @@
         <v>25700</v>
       </c>
       <c r="J61" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K61" s="3">
         <v>25800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>20800</v>
       </c>
       <c r="L61" s="3">
         <v>20800</v>
@@ -4830,19 +4973,19 @@
         <v>20800</v>
       </c>
       <c r="N61" s="3">
+        <v>20800</v>
+      </c>
+      <c r="O61" s="3">
         <v>20700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>15200</v>
       </c>
       <c r="S61" s="3">
         <v>15200</v>
@@ -4863,10 +5006,10 @@
         <v>15200</v>
       </c>
       <c r="Y61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="Z61" s="3">
         <v>15100</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>22100</v>
       </c>
       <c r="AA61" s="3">
         <v>22100</v>
@@ -4875,13 +5018,16 @@
         <v>22100</v>
       </c>
       <c r="AC61" s="3">
+        <v>22100</v>
+      </c>
+      <c r="AD61" s="3">
         <v>22300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>926100</v>
+      </c>
+      <c r="E66" s="3">
         <v>934100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>873800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>884300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>882900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>887200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>840000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>840600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>762700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>709500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>641400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>700300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>602900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>604500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>601100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>579600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>551200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>532800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>516000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>487400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>482400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>408500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>401500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>408200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>392500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>381500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>383500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>346800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5577,13 +5745,13 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="X70" s="3">
         <v>3000</v>
       </c>
       <c r="Y70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Z70" s="3">
         <v>0</v>
@@ -5598,10 +5766,13 @@
         <v>0</v>
       </c>
       <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
         <v>11900</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E72" s="3">
         <v>30600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>29900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>24800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>24000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>23100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>20400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-29300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-30500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-31200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-31700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,8 +6213,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6039,85 +6225,88 @@
         <v>66500</v>
       </c>
       <c r="E76" s="3">
+        <v>66500</v>
+      </c>
+      <c r="F76" s="3">
         <v>63300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>62200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>64000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>66600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>70800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>70400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>68200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>68700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>62300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>57100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>56500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>53200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>50900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>50400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>47000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>47200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>54100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>28300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>26700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>26000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>25100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>900</v>
       </c>
       <c r="I81" s="3">
         <v>900</v>
       </c>
       <c r="J81" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="K81" s="3">
         <v>1300</v>
       </c>
       <c r="L81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,8 +7141,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7013,8 +7230,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7389,8 +7619,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8008,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7851,8 +8097,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8186,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
